--- a/ColliderTests.xlsx
+++ b/ColliderTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayla\Desktop\advanced-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB6FA41-6324-47E2-A35A-6F44DB0E417E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF9BF77-3CBA-4F25-B494-4E3B30F409AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Object #</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>Mix</t>
+  </si>
+  <si>
+    <t>500 Objects</t>
+  </si>
+  <si>
+    <t>1000 Objects</t>
+  </si>
+  <si>
+    <t>1500 Objects</t>
+  </si>
+  <si>
+    <t>2000 Objects</t>
   </si>
 </sst>
 </file>
@@ -247,25 +259,24 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$H$2:$K$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>500 Objects</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>1000 Objects</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
+                  <c:v>1500 Objects</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2000 Objects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -338,25 +349,24 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$H$2:$K$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>500 Objects</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>1000 Objects</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
+                  <c:v>1500 Objects</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2000 Objects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -457,7 +467,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -477,67 +486,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Object Count</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.42126377595171177"/>
-              <c:y val="0.82919287123370833"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -786,7 +734,734 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Octree Study:</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Different Collider Types</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>500 Objects</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="0"/>
+                    <a:lumOff val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="42000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="0"/>
+                    <a:lumOff val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+              </a:path>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$1,Sheet1!$G$1,Sheet1!$M$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AABB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$8,Sheet1!$B$8,Sheet1!$N$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0A9-4A7D-B360-887B9E3824DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1000 Objects</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="0"/>
+                    <a:lumOff val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="25000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="0"/>
+                    <a:lumOff val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+              </a:path>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$1,Sheet1!$G$1,Sheet1!$M$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AABB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$8,Sheet1!$I$8,Sheet1!$O$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>470.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>434.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>452.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B0A9-4A7D-B360-887B9E3824DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1500 Objects</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="0"/>
+                    <a:lumOff val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="27000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="0"/>
+                    <a:lumOff val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+              </a:path>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$A$1,Sheet1!$G$1,Sheet1!$M$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>AABB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$8,Sheet1!$J$8,Sheet1!$P$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>222.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B0A9-4A7D-B360-887B9E3824DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2000 Objects</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="0"/>
+                    <a:lumOff val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="0"/>
+                    <a:lumOff val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+              </a:path>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$8,Sheet1!$K$8,Sheet1!$Q$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>448.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B0A9-4A7D-B360-887B9E3824DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="295166991"/>
+        <c:axId val="299501887"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="295166991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299501887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="299501887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295166991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20806568116315158"/>
+          <c:y val="0.91122370410336828"/>
+          <c:w val="0.61783847182589913"/>
+          <c:h val="6.0225260921613927E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1322,20 +1997,516 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1355,6 +2526,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6CB746-AF0E-422D-BBCC-8DB89EDA4826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1629,7 +2838,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1668,17 +2877,17 @@
       <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>500</v>
-      </c>
-      <c r="I2">
-        <v>1000</v>
-      </c>
-      <c r="J2">
-        <v>1500</v>
-      </c>
-      <c r="K2">
-        <v>2000</v>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>

--- a/ColliderTests.xlsx
+++ b/ColliderTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayla\Desktop\advanced-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF9BF77-3CBA-4F25-B494-4E3B30F409AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADCF1CD-90AE-4B0A-AFBF-F532BEF48E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,19 +138,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -167,7 +161,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Different Collider Types</a:t>
+              <a:t>Different Collider Types Sorted by Objects</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -185,19 +179,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -221,41 +209,13 @@
             <c:v>AABB</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="0"/>
-                    <a:lumOff val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="42000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="0"/>
-                    <a:lumOff val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:path path="circle">
-                <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-              </a:path>
-              <a:tileRect/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -312,40 +272,13 @@
             <c:v>OBB</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="0"/>
-                    <a:lumOff val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="25000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="0"/>
-                    <a:lumOff val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:path path="circle">
-                <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-              </a:path>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -402,41 +335,13 @@
             <c:v>Mix</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="0"/>
-                    <a:lumOff val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="27000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="0"/>
-                    <a:lumOff val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:path path="circle">
-                <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-              </a:path>
-              <a:tileRect/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -474,8 +379,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="295166991"/>
         <c:axId val="299501887"/>
       </c:barChart>
@@ -492,11 +397,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -510,8 +415,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -541,9 +447,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -558,10 +464,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -589,10 +496,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -622,8 +530,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -648,16 +557,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.38744806081801075"/>
-          <c:y val="0.9147925834752455"/>
-          <c:w val="0.21602122622955508"/>
-          <c:h val="6.0225260921613927E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -673,8 +572,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -691,28 +591,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -755,19 +644,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -784,7 +667,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Different Collider Types</a:t>
+              <a:t>Different Collider Types Sorted by Colliders</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -802,19 +685,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -838,41 +715,13 @@
             <c:v>500 Objects</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="0"/>
-                    <a:lumOff val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="42000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="0"/>
-                    <a:lumOff val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:path path="circle">
-                <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-              </a:path>
-              <a:tileRect/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -923,40 +772,13 @@
             <c:v>1000 Objects</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="0"/>
-                    <a:lumOff val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="25000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="0"/>
-                    <a:lumOff val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:path path="circle">
-                <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-              </a:path>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1007,41 +829,13 @@
             <c:v>1500 Objects</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="0"/>
-                    <a:lumOff val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="27000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="0"/>
-                    <a:lumOff val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:path path="circle">
-                <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-              </a:path>
-              <a:tileRect/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1092,41 +886,13 @@
             <c:v>2000 Objects</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="0"/>
-                    <a:lumOff val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="35000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="0"/>
-                    <a:lumOff val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:path path="circle">
-                <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-              </a:path>
-              <a:tileRect/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -1161,8 +927,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="295166991"/>
         <c:axId val="299501887"/>
       </c:barChart>
@@ -1179,11 +945,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1197,8 +963,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1228,9 +995,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1245,10 +1012,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1276,10 +1044,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1309,8 +1078,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1335,16 +1105,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20806568116315158"/>
-          <c:y val="0.91122370410336828"/>
-          <c:w val="0.61783847182589913"/>
-          <c:h val="6.0225260921613927E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1360,8 +1120,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1378,28 +1139,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1502,33 +1252,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1536,34 +1288,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1572,8 +1316,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1592,6 +1337,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1600,35 +1353,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1640,31 +1393,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1680,18 +1432,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1701,20 +1456,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1725,17 +1480,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1744,13 +1499,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1762,22 +1518,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1789,16 +1551,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1807,17 +1570,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1826,16 +1589,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1844,26 +1608,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1871,21 +1636,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1893,14 +1648,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1912,19 +1667,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1933,13 +1681,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1948,8 +1697,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1959,7 +1709,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1967,9 +1717,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1980,8 +1730,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1991,40 +1742,48 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2032,34 +1791,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2068,8 +1819,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2088,6 +1840,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2096,35 +1856,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2136,31 +1896,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2176,18 +1935,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2197,20 +1959,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2221,17 +1983,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2240,13 +2002,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2258,22 +2021,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2285,16 +2054,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2303,17 +2073,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2322,16 +2092,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2340,26 +2111,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2367,21 +2139,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2389,14 +2151,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2408,19 +2170,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2429,13 +2184,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2444,8 +2200,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2455,7 +2212,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2463,9 +2220,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2476,8 +2233,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2487,8 +2245,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2499,14 +2263,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2533,16 +2297,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2837,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
